--- a/medicine/Enfance/Blanche_Lohéac-Ammoun/Blanche_Lohéac-Ammoun.xlsx
+++ b/medicine/Enfance/Blanche_Lohéac-Ammoun/Blanche_Lohéac-Ammoun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Blanche_Loh%C3%A9ac-Ammoun</t>
+          <t>Blanche_Lohéac-Ammoun</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blanche Lohéac-Ammoun, née le 20 octobre 1912 au Liban et morte le 5 janvier 2011 à Paris 16e (France), est une artiste peintre, illustratrice et écrivaine franco-libanaise.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Blanche_Loh%C3%A9ac-Ammoun</t>
+          <t>Blanche_Lohéac-Ammoun</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fille du juriste et poète Daoud Ammoun (1867-1922) et nièce d'Iskandar Anṭūn ʿAmmūn, Blanche Ammoun naît au Liban en 1912[1]. Elle entreprend des études de droit[1] et obtient sa licence[2]. Elle est l'une des deux premières Libanaises à obtenir ce diplôme[3].
-Elle est cependant artiste et pratique les arts depuis son enfance[1]. Sa première exposition personnelle se tient en 1938 à Beyrouth[3]. Ayant épousé en 1944 un officier français, le colonel André Lohéac, résistant FFL[4],[1],[5], elle s'installe à Paris et s'y consacre complètement à la peinture[1].
-Blanche Lohéac-Ammoun travaille surtout en France, mais elle expose ses peintures à Beyrouth et à Paris[1],[6], avec un certain succès[1],[7].
-Elle innove techniquement avec la technique des « sablirisés »[3] ou « sablinisés »[8] donnant des éclats de miroir par des supports de métal montés comme un mobile[8]. Elle est parfois considérée comme « une véritable magicienne »[9].
-Elle passe momentanément dans le domaine de la littérature[7] et écrit les textes d'ouvrages qu'elle illustre. Elle publie une Histoire du Liban à Beyrouth en 1937[7], avec « finesse et humour »[6]. Son ouvrage Zénobie, reine de Palmyre, publié en 1964, reçoit l'année suivante le prix Sobrier-Arnould[10].
-Elle meurt dans le 16e arrondissement de Paris le 5 janvier 2011[1],[11].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fille du juriste et poète Daoud Ammoun (1867-1922) et nièce d'Iskandar Anṭūn ʿAmmūn, Blanche Ammoun naît au Liban en 1912. Elle entreprend des études de droit et obtient sa licence. Elle est l'une des deux premières Libanaises à obtenir ce diplôme.
+Elle est cependant artiste et pratique les arts depuis son enfance. Sa première exposition personnelle se tient en 1938 à Beyrouth. Ayant épousé en 1944 un officier français, le colonel André Lohéac, résistant FFL elle s'installe à Paris et s'y consacre complètement à la peinture.
+Blanche Lohéac-Ammoun travaille surtout en France, mais elle expose ses peintures à Beyrouth et à Paris avec un certain succès,.
+Elle innove techniquement avec la technique des « sablirisés » ou « sablinisés » donnant des éclats de miroir par des supports de métal montés comme un mobile. Elle est parfois considérée comme « une véritable magicienne ».
+Elle passe momentanément dans le domaine de la littérature et écrit les textes d'ouvrages qu'elle illustre. Elle publie une Histoire du Liban à Beyrouth en 1937, avec « finesse et humour ». Son ouvrage Zénobie, reine de Palmyre, publié en 1964, reçoit l'année suivante le prix Sobrier-Arnould.
+Elle meurt dans le 16e arrondissement de Paris le 5 janvier 2011,.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Blanche_Loh%C3%A9ac-Ammoun</t>
+          <t>Blanche_Lohéac-Ammoun</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Histoire du Liban, Beyrouth, 1937 ; 3e édition, Le Jour, 1948 ; 4e édition, Beyrouth, 1968.
 Zénobie reine de Palmyre, Le Réveil, 1964 – Prix Sobrier-Arnould 1965.
